--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3320401.370594425</v>
+        <v>3318149.290883217</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>93.52676208877617</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>46.79575676083554</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>10.93787135974287</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>179.0530003794244</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>16.61609021060049</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>201.6622187863195</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1057,22 +1057,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>129.9278109811845</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>99.84759100840618</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>126.5388824951713</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316083</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414546</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620245</v>
       </c>
       <c r="G10" t="n">
-        <v>117.0859349823499</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417108</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505377</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.040488224226</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.613741235233294</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412174</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,7 +3904,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>115.4764219077138</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1935.366530930991</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C2" t="n">
-        <v>1566.40401399058</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D2" t="n">
-        <v>1208.138315383829</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>822.3500627855849</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>411.3641579959773</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906803</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2325.505862906803</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1935.366530930991</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4410,49 +4410,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>826.5851666348717</v>
+        <v>560.4166776763448</v>
       </c>
       <c r="C4" t="n">
-        <v>657.6489837069648</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="D4" t="n">
-        <v>507.5323442946291</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>223.7776581231568</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>77.56047134101462</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4513,25 +4513,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>1746.43293154362</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W4" t="n">
-        <v>1457.015761506659</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X4" t="n">
-        <v>1229.026210608642</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y4" t="n">
-        <v>1008.233631465111</v>
+        <v>742.0651425065845</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>905.5765942093292</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>547.3108956025787</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1796.054334976186</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1574.287719545712</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1574.287719545712</v>
+        <v>1323.155438708629</v>
       </c>
       <c r="V7" t="n">
-        <v>1319.603231339825</v>
+        <v>1068.470950502742</v>
       </c>
       <c r="W7" t="n">
-        <v>1319.603231339825</v>
+        <v>779.0537804657819</v>
       </c>
       <c r="X7" t="n">
-        <v>1091.613680441807</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="Y7" t="n">
-        <v>1091.613680441807</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810555</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4823,31 +4823,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>3197.788768583745</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
@@ -4878,25 +4878,25 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1042.179465010819</v>
+        <v>188.3660221514001</v>
       </c>
       <c r="C10" t="n">
-        <v>873.2432820829124</v>
+        <v>188.3660221514001</v>
       </c>
       <c r="D10" t="n">
-        <v>723.1266426705766</v>
+        <v>188.3660221514001</v>
       </c>
       <c r="E10" t="n">
-        <v>575.2135490881835</v>
+        <v>188.3660221514001</v>
       </c>
       <c r="F10" t="n">
-        <v>428.3236015902731</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581906</v>
@@ -4978,34 +4978,34 @@
         <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q10" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242374</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>880.2242361621305</v>
       </c>
       <c r="W10" t="n">
-        <v>1672.610059882606</v>
+        <v>590.80706612517</v>
       </c>
       <c r="X10" t="n">
-        <v>1444.620508984589</v>
+        <v>590.80706612517</v>
       </c>
       <c r="Y10" t="n">
-        <v>1223.827929841059</v>
+        <v>370.0144869816398</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5039,13 +5039,13 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5121,25 +5121,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245714</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>776.17510664033</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266882</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
         <v>2129.438138565707</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,19 +5595,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5832,22 +5832,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5975,19 +5975,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5996,10 +5996,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,10 +6236,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>268.7034100454488</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>101.5073107603287</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>697.5276345711973</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7315,13 +7315,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.0655846733346</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>411.1294017454277</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>761.7140495035743</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.2063328744018</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.6341900408526</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109906</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.005313310877426</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>65.54986409393081</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778558</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778559</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.939721005</v>
       </c>
       <c r="F2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="G2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="I2" t="n">
         <v>726431.939721005</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210053</v>
       </c>
       <c r="J2" t="n">
         <v>726431.9397210053</v>
@@ -26341,19 +26341,19 @@
         <v>726431.9397210053</v>
       </c>
       <c r="L2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="N2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="O2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.939721005</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073547</v>
       </c>
       <c r="F3" t="n">
-        <v>1.539821964954548e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319403</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.842883194</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.842883194</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184278</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="F4" t="n">
+        <v>13606.80811184279</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13606.80811184277</v>
+      </c>
+      <c r="H4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13606.80811184273</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184277</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184273</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184281</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184278</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-790534.9362943247</v>
+        <v>-790534.9362943246</v>
       </c>
       <c r="C6" t="n">
-        <v>538209.8094332683</v>
+        <v>538209.8094332685</v>
       </c>
       <c r="D6" t="n">
-        <v>538209.8094332686</v>
+        <v>538209.8094332679</v>
       </c>
       <c r="E6" t="n">
-        <v>286290.1399779008</v>
+        <v>286255.4020524647</v>
       </c>
       <c r="F6" t="n">
-        <v>611702.6017852552</v>
+        <v>611667.8638598197</v>
       </c>
       <c r="G6" t="n">
-        <v>611702.6017852552</v>
+        <v>611667.8638598197</v>
       </c>
       <c r="H6" t="n">
-        <v>611702.6017852555</v>
+        <v>611667.8638598197</v>
       </c>
       <c r="I6" t="n">
-        <v>611702.6017852555</v>
+        <v>611667.8638598195</v>
       </c>
       <c r="J6" t="n">
-        <v>394171.399387978</v>
+        <v>394136.6614625422</v>
       </c>
       <c r="K6" t="n">
-        <v>611702.6017852555</v>
+        <v>611667.8638598197</v>
       </c>
       <c r="L6" t="n">
-        <v>611702.6017852555</v>
+        <v>611667.8638598196</v>
       </c>
       <c r="M6" t="n">
-        <v>526647.5738497438</v>
+        <v>526612.8359243083</v>
       </c>
       <c r="N6" t="n">
-        <v>611702.6017852555</v>
+        <v>611667.8638598196</v>
       </c>
       <c r="O6" t="n">
-        <v>611702.6017852556</v>
+        <v>611667.8638598201</v>
       </c>
       <c r="P6" t="n">
-        <v>611702.6017852551</v>
+        <v>611667.8638598198</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26738,7 +26738,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593299</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26960,26 +26960,26 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>289.2070795747044</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>364.1259688926179</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>85.41454905009522</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>73.08464294440356</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>365.3142798616613</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>168.0688818921495</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>59.84121435025736</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>186.3642471972067</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>222.7020862222417</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468607</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.78568136090672</v>
       </c>
       <c r="G10" t="n">
-        <v>48.93987327667831</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9.003997547551986e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.07318341828168e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>9.003997547551988e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,10 +31513,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I8" t="n">
         <v>168.89895979748</v>
@@ -31525,31 +31525,31 @@
         <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R8" t="n">
         <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T8" t="n">
         <v>19.17787942451121</v>
@@ -31598,43 +31598,43 @@
         <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J9" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837908</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,19 +31677,19 @@
         <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K10" t="n">
         <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N10" t="n">
         <v>300.7247737883116</v>
@@ -31704,13 +31704,13 @@
         <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S10" t="n">
         <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,34 +31841,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305202</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>593.5422977113961</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32315,22 +32315,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32479,7 +32479,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159425</v>
@@ -32552,25 +32552,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175652</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33500,16 +33500,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004575</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859617</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701982</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561612</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>462.2005856280628</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
-        <v>546.2057666753343</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902925</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>546.2057666753343</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
